--- a/results_repeated_boost_ensemble/data_1_1year_bundesliga_resultados_folds.xlsx
+++ b/results_repeated_boost_ensemble/data_1_1year_bundesliga_resultados_folds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,6 +1345,131 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4898989898989898</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4564870674710492</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6943948412698413</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.594017094017094</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5322522522522523</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8045800264550266</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6277777777777778</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5648148148148149</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7881944444444443</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5069444444444445</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5069444444444445</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7400793650793651</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4405982905982906</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4420430107526882</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6708498677248679</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
